--- a/sputnik/personal/ee/13ee.xlsx
+++ b/sputnik/personal/ee/13ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -95,7 +95,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +190,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,27 +553,31 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>44370</v>
+      <c r="A2" s="14">
+        <v>44446</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2">
+        <v>600</v>
+      </c>
+      <c r="D2" s="2">
+        <v>200</v>
+      </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="H2" s="5">
-        <v>2520</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,67 +585,120 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44326</v>
+      <c r="A4" s="15">
+        <v>44370</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+        <v>400</v>
+      </c>
+      <c r="D4" s="2">
+        <v>400</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1984</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUM(F4,F5)</f>
+        <v>2520</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2520</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="11" t="s">
+      <c r="A6" s="7">
+        <v>44326</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
-        <f>SUM(G2:G5)</f>
+      <c r="G8" s="5">
+        <f>SUM(G2:G7)</f>
+        <v>3780</v>
+      </c>
+      <c r="H8" s="5">
+        <f>SUM(H2:H7)</f>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <f>SUM(H8,-G8)</f>
         <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <f>SUM(H2:H5)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="11"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <f>SUM(H6,-G6)</f>
-        <v>2520</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/13ee.xlsx
+++ b/sputnik/personal/ee/13ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -505,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,30 +554,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44446</v>
+        <v>44539</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="D2" s="2">
-        <v>200</v>
+        <f>SUM(C2,-C4)</f>
+        <v>1500</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>992</v>
+        <v>7440</v>
       </c>
       <c r="G2" s="5">
         <f>SUM(F2,F3)</f>
-        <v>1260</v>
+        <v>9584</v>
       </c>
       <c r="H2" s="5">
-        <v>1260</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -586,47 +587,48 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <f>SUM(C3,-C5)</f>
+        <v>800</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>2144</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44370</v>
+        <v>44446</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D4" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>2520</v>
+        <v>1260</v>
       </c>
       <c r="H4" s="5">
-        <v>2520</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,69 +637,118 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>268</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>44326</v>
+      <c r="A6" s="15">
+        <v>44370</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+        <v>400</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>1984</v>
+      </c>
+      <c r="G6" s="5">
+        <f>SUM(F6,F7)</f>
+        <v>2520</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2520</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.68</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="11" t="s">
+      <c r="A8" s="7">
+        <v>44326</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
-        <f>SUM(G2:G7)</f>
-        <v>3780</v>
-      </c>
-      <c r="H8" s="5">
-        <f>SUM(H2:H7)</f>
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <f>SUM(H8,-G8)</f>
+      <c r="G10" s="5">
+        <f>SUM(G2:G9)</f>
+        <v>13364</v>
+      </c>
+      <c r="H10" s="5">
+        <f>SUM(H2:H9)</f>
+        <v>13364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="11"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
       </c>
     </row>
